--- a/execl/ETF.xlsx
+++ b/execl/ETF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="14175" activeTab="1"/>
+    <workbookView windowWidth="13545" windowHeight="7215" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="上海交易所ETF列表" sheetId="2" r:id="rId1"/>
@@ -30,13 +30,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="2003">
   <si>
-    <t>证券代码</t>
-  </si>
-  <si>
-    <t>证券简称</t>
-  </si>
-  <si>
-    <r>
+    <t>StockCode</t>
+  </si>
+  <si>
+    <t>StockABB</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>180</t>
     </r>
     <r>
@@ -140,6 +146,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>ESGETF</t>
     </r>
     <r>
@@ -539,6 +551,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>300</t>
     </r>
     <r>
@@ -996,6 +1014,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>G60</t>
     </r>
     <r>
@@ -1019,6 +1043,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>50ETF</t>
     </r>
     <r>
@@ -1093,6 +1123,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>H</t>
     </r>
     <r>
@@ -1228,6 +1264,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>5</t>
     </r>
     <r>
@@ -1251,6 +1293,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>30</t>
     </r>
     <r>
@@ -1374,6 +1422,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>10</t>
     </r>
     <r>
@@ -2064,6 +2118,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>MSCIA</t>
     </r>
     <r>
@@ -2139,6 +2199,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>MSCI</t>
     </r>
     <r>
@@ -2200,6 +2266,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>MSCIA</t>
     </r>
     <r>
@@ -2313,6 +2385,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>MSCIA</t>
     </r>
     <r>
@@ -2423,6 +2501,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>MSCI</t>
     </r>
     <r>
@@ -2632,6 +2716,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>A50ETF</t>
     </r>
     <r>
@@ -3200,6 +3290,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>AI</t>
     </r>
     <r>
@@ -3303,6 +3399,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>MSCIA</t>
     </r>
     <r>
@@ -4847,6 +4949,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>5G</t>
     </r>
     <r>
@@ -5068,6 +5176,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>MSCI</t>
     </r>
     <r>
@@ -5425,6 +5539,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>300ETF</t>
     </r>
     <r>
@@ -5675,6 +5795,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>500</t>
     </r>
     <r>
@@ -8767,6 +8893,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>800</t>
     </r>
     <r>
@@ -8790,6 +8922,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>MSCI</t>
     </r>
     <r>
@@ -9186,6 +9324,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>500</t>
     </r>
     <r>
@@ -9325,6 +9469,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>1000ETF</t>
     </r>
     <r>
@@ -9586,6 +9736,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>500ETF</t>
     </r>
     <r>
@@ -9995,6 +10151,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>300</t>
     </r>
     <r>
@@ -10161,6 +10323,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>500</t>
     </r>
     <r>
@@ -10360,6 +10528,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>1000</t>
     </r>
     <r>
@@ -10492,6 +10666,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>500</t>
     </r>
     <r>
@@ -11789,6 +11969,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>A50</t>
     </r>
     <r>
@@ -11832,6 +12018,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>A</t>
     </r>
     <r>
@@ -12845,6 +13037,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中证</t>
     </r>
     <r>
@@ -12878,6 +13075,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>工程机械</t>
     </r>
     <r>
@@ -12903,6 +13105,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>深证主板</t>
     </r>
     <r>
@@ -12924,6 +13131,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399750 </t>
     </r>
     <r>
@@ -12969,6 +13181,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>石油天然气</t>
     </r>
     <r>
@@ -12982,6 +13199,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399439 </t>
     </r>
     <r>
@@ -13004,6 +13226,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>黄金股票</t>
     </r>
     <r>
@@ -13029,6 +13256,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板成长</t>
     </r>
     <r>
@@ -13050,6 +13282,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399667 </t>
     </r>
     <r>
@@ -13072,6 +13309,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>恒生医疗指数</t>
     </r>
     <r>
@@ -13097,6 +13339,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>红利低波</t>
     </r>
     <r>
@@ -13119,6 +13366,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>国企改革</t>
     </r>
     <r>
@@ -13132,6 +13384,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399974 </t>
     </r>
     <r>
@@ -13151,6 +13408,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>汽车零件</t>
     </r>
     <r>
@@ -13176,6 +13438,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>芯片</t>
     </r>
     <r>
@@ -13209,6 +13476,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>芯片产业</t>
     </r>
     <r>
@@ -13231,6 +13503,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>德国</t>
     </r>
     <r>
@@ -13253,6 +13530,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>红利低波</t>
     </r>
     <r>
@@ -13275,6 +13557,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>机器人指数</t>
     </r>
     <r>
@@ -13297,6 +13584,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>半导体产业</t>
     </r>
     <r>
@@ -13319,6 +13611,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>恒生红利低波</t>
     </r>
     <r>
@@ -13341,6 +13638,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>2000ETF</t>
     </r>
     <r>
@@ -13363,6 +13665,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>红利</t>
     </r>
     <r>
@@ -13388,6 +13695,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中证</t>
     </r>
     <r>
@@ -13410,6 +13722,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>A50ETF</t>
     </r>
     <r>
@@ -13432,6 +13749,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中证</t>
     </r>
     <r>
@@ -13459,6 +13781,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>A50ETF</t>
     </r>
     <r>
@@ -13481,6 +13808,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>红利</t>
     </r>
     <r>
@@ -13511,6 +13843,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>计算机</t>
     </r>
     <r>
@@ -13541,6 +13878,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中证</t>
     </r>
     <r>
@@ -13576,6 +13918,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>港股互联网</t>
     </r>
     <r>
@@ -13598,6 +13945,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>汽车零部件</t>
     </r>
     <r>
@@ -13617,6 +13969,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板综</t>
     </r>
     <r>
@@ -13638,6 +13995,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399102 </t>
     </r>
     <r>
@@ -13660,6 +14022,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>美国</t>
     </r>
     <r>
@@ -13685,6 +14052,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>储能电池</t>
     </r>
     <r>
@@ -13707,6 +14079,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>红利低波</t>
     </r>
     <r>
@@ -13726,6 +14103,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>标普消费</t>
     </r>
     <r>
@@ -13748,6 +14130,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>数据</t>
     </r>
     <r>
@@ -13770,6 +14157,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>黄金股</t>
     </r>
     <r>
@@ -13789,6 +14181,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>港股通创新药</t>
     </r>
     <r>
@@ -13811,6 +14208,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>机器人</t>
     </r>
     <r>
@@ -13833,6 +14235,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>港股创新药</t>
     </r>
     <r>
@@ -13852,6 +14259,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>标普生物科技</t>
     </r>
     <r>
@@ -13874,6 +14286,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中证</t>
     </r>
     <r>
@@ -13901,6 +14318,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>深证</t>
     </r>
     <r>
@@ -13922,6 +14344,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399330 </t>
     </r>
     <r>
@@ -13949,6 +14376,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板</t>
     </r>
     <r>
@@ -13970,6 +14402,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399019 </t>
     </r>
     <r>
@@ -13997,6 +14434,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板</t>
     </r>
     <r>
@@ -14024,6 +14466,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板</t>
     </r>
     <r>
@@ -14051,6 +14498,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板</t>
     </r>
     <r>
@@ -14078,6 +14530,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>2000</t>
     </r>
     <r>
@@ -14105,6 +14562,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>机器人</t>
     </r>
     <r>
@@ -14132,6 +14594,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>深证</t>
     </r>
     <r>
@@ -14153,6 +14620,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399850 </t>
     </r>
     <r>
@@ -14180,6 +14652,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>深证</t>
     </r>
     <r>
@@ -14207,6 +14684,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>红利低波动</t>
     </r>
     <r>
@@ -14226,6 +14708,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>国证</t>
     </r>
     <r>
@@ -14255,6 +14742,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399303 </t>
     </r>
     <r>
@@ -14282,6 +14774,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中证</t>
     </r>
     <r>
@@ -14320,6 +14817,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>国证</t>
     </r>
     <r>
@@ -14350,6 +14852,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>芯片</t>
     </r>
     <r>
@@ -14369,6 +14876,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>机器人产业</t>
     </r>
     <r>
@@ -14391,6 +14903,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>标普油气</t>
     </r>
     <r>
@@ -14413,6 +14930,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>消费龙头</t>
     </r>
     <r>
@@ -14435,6 +14957,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板综</t>
     </r>
     <r>
@@ -14462,6 +14989,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>集成电路</t>
     </r>
     <r>
@@ -14484,6 +15016,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>国证</t>
     </r>
     <r>
@@ -14511,6 +15048,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>信创</t>
     </r>
     <r>
@@ -14533,6 +15075,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>信创</t>
     </r>
     <r>
@@ -14552,6 +15099,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>信创</t>
     </r>
     <r>
@@ -14579,6 +15131,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中证</t>
     </r>
     <r>
@@ -14606,6 +15163,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>信创</t>
     </r>
     <r>
@@ -14633,6 +15195,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中证</t>
     </r>
     <r>
@@ -14668,6 +15235,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中证</t>
     </r>
     <r>
@@ -14695,6 +15267,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>沪深</t>
     </r>
     <r>
@@ -14733,6 +15310,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中证</t>
     </r>
     <r>
@@ -14752,6 +15334,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>2000</t>
     </r>
     <r>
@@ -14779,6 +15366,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>国企红利</t>
     </r>
     <r>
@@ -14804,6 +15396,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>800</t>
     </r>
     <r>
@@ -14834,6 +15431,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>港股国企</t>
     </r>
     <r>
@@ -14856,6 +15458,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>纳指</t>
     </r>
     <r>
@@ -14886,6 +15493,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>恒生消费</t>
     </r>
     <r>
@@ -14908,6 +15520,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>粮食</t>
     </r>
     <r>
@@ -14921,6 +15538,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399365 </t>
     </r>
     <r>
@@ -14943,6 +15565,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>沪深</t>
     </r>
     <r>
@@ -14981,6 +15608,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>纳指科技</t>
     </r>
     <r>
@@ -15003,6 +15635,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>通信</t>
     </r>
     <r>
@@ -15033,6 +15670,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>纳斯达克</t>
     </r>
     <r>
@@ -15068,6 +15710,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>半导体设备</t>
     </r>
     <r>
@@ -15090,6 +15737,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>汽车</t>
     </r>
     <r>
@@ -15112,6 +15764,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>财富管理</t>
     </r>
     <r>
@@ -15134,6 +15791,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中证</t>
     </r>
     <r>
@@ -15161,6 +15823,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>鹏华沪深</t>
     </r>
     <r>
@@ -15174,6 +15841,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399300 </t>
     </r>
     <r>
@@ -15201,6 +15873,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>生物医药</t>
     </r>
     <r>
@@ -15222,6 +15899,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399441 </t>
     </r>
     <r>
@@ -15241,6 +15923,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>矿业</t>
     </r>
     <r>
@@ -15266,6 +15953,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>恒生医疗</t>
     </r>
     <r>
@@ -15288,6 +15980,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>电信</t>
     </r>
     <r>
@@ -15301,6 +15998,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399389 </t>
     </r>
     <r>
@@ -15320,6 +16022,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>纳斯达克指数</t>
     </r>
     <r>
@@ -15339,6 +16046,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>证券</t>
     </r>
     <r>
@@ -15369,6 +16081,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>通信</t>
     </r>
     <r>
@@ -15388,6 +16105,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创新药</t>
     </r>
     <r>
@@ -15418,6 +16140,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>消费</t>
     </r>
     <r>
@@ -15451,6 +16178,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>油气</t>
     </r>
     <r>
@@ -15470,6 +16202,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>纳斯达克</t>
     </r>
     <r>
@@ -15489,6 +16226,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>港股红利</t>
     </r>
     <r>
@@ -15511,6 +16253,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>纳指</t>
     </r>
     <r>
@@ -15530,6 +16277,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板增强</t>
     </r>
     <r>
@@ -15551,6 +16303,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399006 </t>
     </r>
     <r>
@@ -15570,6 +16327,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>主要消费</t>
     </r>
     <r>
@@ -15592,6 +16354,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>1000</t>
     </r>
     <r>
@@ -15639,6 +16406,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>生物疫苗</t>
     </r>
     <r>
@@ -15652,6 +16424,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">980015 </t>
     </r>
     <r>
@@ -15671,6 +16448,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>消费</t>
     </r>
     <r>
@@ -15698,6 +16480,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>稀有金属</t>
     </r>
     <r>
@@ -15728,6 +16515,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中证</t>
     </r>
     <r>
@@ -15766,6 +16558,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中证</t>
     </r>
     <r>
@@ -15801,6 +16598,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>恒生互联网</t>
     </r>
     <r>
@@ -15823,6 +16625,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>交通运输</t>
     </r>
     <r>
@@ -15845,6 +16652,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>有色</t>
     </r>
     <r>
@@ -15867,6 +16679,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>300</t>
     </r>
     <r>
@@ -15897,6 +16714,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>绿电</t>
     </r>
     <r>
@@ -15910,6 +16732,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399438 </t>
     </r>
     <r>
@@ -15929,6 +16756,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>运输</t>
     </r>
     <r>
@@ -15951,6 +16783,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>半导体龙头</t>
     </r>
     <r>
@@ -15964,6 +16801,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">980017 </t>
     </r>
     <r>
@@ -15983,6 +16825,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创</t>
     </r>
     <r>
@@ -15996,6 +16843,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399673 </t>
     </r>
     <r>
@@ -16023,6 +16875,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业</t>
     </r>
     <r>
@@ -16042,6 +16899,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>亚太精选</t>
     </r>
     <r>
@@ -16064,6 +16926,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>1000</t>
     </r>
     <r>
@@ -16091,6 +16958,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板增强</t>
     </r>
     <r>
@@ -16110,6 +16982,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>交运</t>
     </r>
     <r>
@@ -16123,6 +17000,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399433 </t>
     </r>
     <r>
@@ -16148,6 +17030,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>1000ETF</t>
     </r>
     <r>
@@ -16167,6 +17054,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>国开债券</t>
     </r>
     <r>
@@ -16189,6 +17081,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>A100ETF</t>
     </r>
     <r>
@@ -16208,6 +17105,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>国开</t>
     </r>
     <r>
@@ -16230,6 +17132,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>机床</t>
     </r>
     <r>
@@ -16252,6 +17159,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>工业母机</t>
     </r>
     <r>
@@ -16271,6 +17183,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>标普</t>
     </r>
     <r>
@@ -16293,6 +17210,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>国开债</t>
     </r>
     <r>
@@ -16315,6 +17237,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>数字经济</t>
     </r>
     <r>
@@ -16337,6 +17264,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>疫苗</t>
     </r>
     <r>
@@ -16376,6 +17308,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>成渝经济圈</t>
     </r>
     <r>
@@ -16398,6 +17335,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>新能源车龙头</t>
     </r>
     <r>
@@ -16411,6 +17353,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>399976 CS</t>
     </r>
     <r>
@@ -16430,6 +17377,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中证</t>
     </r>
     <r>
@@ -16449,6 +17401,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>疫苗</t>
     </r>
     <r>
@@ -16468,6 +17425,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>高端装备</t>
     </r>
     <r>
@@ -16490,6 +17452,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>农牧</t>
     </r>
     <r>
@@ -16515,6 +17482,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>500</t>
     </r>
     <r>
@@ -16545,6 +17517,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中证</t>
     </r>
     <r>
@@ -16589,6 +17566,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>纳斯达克</t>
     </r>
     <r>
@@ -16608,6 +17590,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中药</t>
     </r>
     <r>
@@ -16630,6 +17617,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>双碳</t>
     </r>
     <r>
@@ -16652,6 +17644,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>碳中和龙头</t>
     </r>
     <r>
@@ -16671,6 +17668,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>碳中和</t>
     </r>
     <r>
@@ -16690,6 +17692,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>港股通科技</t>
     </r>
     <r>
@@ -16712,6 +17719,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>碳中和</t>
     </r>
     <r>
@@ -16739,6 +17751,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>国证</t>
     </r>
     <r>
@@ -16758,6 +17775,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>基建</t>
     </r>
     <r>
@@ -16780,6 +17802,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>光伏龙头</t>
     </r>
     <r>
@@ -16805,6 +17832,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>500</t>
     </r>
     <r>
@@ -16835,6 +17867,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>恒生生物科技</t>
     </r>
     <r>
@@ -16857,6 +17894,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>双创龙头</t>
     </r>
     <r>
@@ -16879,6 +17921,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>标普</t>
     </r>
     <r>
@@ -16898,6 +17945,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>医疗器械</t>
     </r>
     <r>
@@ -16928,6 +17980,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>消费</t>
     </r>
     <r>
@@ -16947,6 +18004,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>绿色电力</t>
     </r>
     <r>
@@ -16966,6 +18028,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>光伏</t>
     </r>
     <r>
@@ -16993,6 +18060,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>上海金</t>
     </r>
     <r>
@@ -17023,6 +18095,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>港股通医药</t>
     </r>
     <r>
@@ -17045,6 +18122,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>金</t>
     </r>
     <r>
@@ -17064,6 +18146,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>建材</t>
     </r>
     <r>
@@ -17094,6 +18181,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>电池</t>
     </r>
     <r>
@@ -17125,6 +18217,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>消费电子龙头</t>
     </r>
     <r>
@@ -17147,6 +18244,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>港股通</t>
     </r>
     <r>
@@ -17169,6 +18271,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>基建</t>
     </r>
     <r>
@@ -17188,6 +18295,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>工业互联</t>
     </r>
     <r>
@@ -17210,6 +18322,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>房地产</t>
     </r>
     <r>
@@ -17232,6 +18349,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>香港科技</t>
     </r>
     <r>
@@ -17254,6 +18376,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>智能车</t>
     </r>
     <r>
@@ -17284,6 +18411,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>云计算</t>
     </r>
     <r>
@@ -17317,6 +18449,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>信息安全</t>
     </r>
     <r>
@@ -17330,6 +18467,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399994 </t>
     </r>
     <r>
@@ -17349,6 +18491,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>新能源车电池</t>
     </r>
     <r>
@@ -17362,6 +18509,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">980032 </t>
     </r>
     <r>
@@ -17381,6 +18533,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>在线消费</t>
     </r>
     <r>
@@ -17394,6 +18551,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399361 </t>
     </r>
     <r>
@@ -17413,6 +18575,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>湖北</t>
     </r>
     <r>
@@ -17435,6 +18602,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>500ETF</t>
     </r>
     <r>
@@ -17454,6 +18626,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>电力</t>
     </r>
     <r>
@@ -17476,6 +18653,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中证</t>
     </r>
     <r>
@@ -17514,6 +18696,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>港股通</t>
     </r>
     <r>
@@ -17536,6 +18723,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>港股医药</t>
     </r>
     <r>
@@ -17555,6 +18747,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>国企共赢</t>
     </r>
     <r>
@@ -17577,6 +18774,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>港股科技</t>
     </r>
     <r>
@@ -17599,6 +18801,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>红利质量</t>
     </r>
     <r>
@@ -17621,6 +18828,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>龙头家电</t>
     </r>
     <r>
@@ -17634,6 +18846,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">980028 </t>
     </r>
     <r>
@@ -17653,6 +18870,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>稀有金属</t>
     </r>
     <r>
@@ -17672,6 +18894,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>物联网</t>
     </r>
     <r>
@@ -17702,6 +18929,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>深证</t>
     </r>
     <r>
@@ -17729,6 +18961,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>泰康公卫健康</t>
     </r>
     <r>
@@ -17742,6 +18979,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">980016 </t>
     </r>
     <r>
@@ -17764,6 +19006,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>新材料</t>
     </r>
     <r>
@@ -17786,6 +19033,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>石化</t>
     </r>
     <r>
@@ -17808,6 +19060,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创新药</t>
     </r>
     <r>
@@ -17835,6 +19092,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中概互联</t>
     </r>
     <r>
@@ -17857,6 +19119,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中概互联网</t>
     </r>
     <r>
@@ -17876,6 +19143,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>消费电子</t>
     </r>
     <r>
@@ -17895,6 +19167,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>线上消费</t>
     </r>
     <r>
@@ -17925,6 +19202,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>物联网龙头</t>
     </r>
     <r>
@@ -17944,6 +19226,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>恒生红利</t>
     </r>
     <r>
@@ -17966,6 +19253,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>大数据</t>
     </r>
     <r>
@@ -17985,6 +19277,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地产</t>
     </r>
     <r>
@@ -17998,6 +19295,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>399965 800</t>
     </r>
     <r>
@@ -18017,6 +19319,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>港股通</t>
     </r>
     <r>
@@ -18045,6 +19352,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中国</t>
     </r>
     <r>
@@ -18064,6 +19376,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>机器人</t>
     </r>
     <r>
@@ -18083,6 +19400,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>食品</t>
     </r>
     <r>
@@ -18105,6 +19427,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>医疗产业</t>
     </r>
     <r>
@@ -18127,6 +19454,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>物联网</t>
     </r>
     <r>
@@ -18146,6 +19478,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>恒生医药</t>
     </r>
     <r>
@@ -18165,6 +19502,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创科技</t>
     </r>
     <r>
@@ -18178,6 +19520,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399276 </t>
     </r>
     <r>
@@ -18197,6 +19544,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>科技龙头</t>
     </r>
     <r>
@@ -18219,6 +19571,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板科技</t>
     </r>
     <r>
@@ -18244,6 +19601,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>港股通互联网</t>
     </r>
     <r>
@@ -18263,6 +19625,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>饮食</t>
     </r>
     <r>
@@ -18285,6 +19652,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>新材料</t>
     </r>
     <r>
@@ -18312,6 +19684,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>稀土</t>
     </r>
     <r>
@@ -18342,6 +19719,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>智能汽车</t>
     </r>
     <r>
@@ -18361,6 +19743,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>消费电子</t>
     </r>
     <r>
@@ -18374,6 +19761,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">980030 </t>
     </r>
     <r>
@@ -18393,6 +19785,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>电池龙头</t>
     </r>
     <r>
@@ -18415,6 +19812,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>锂电池</t>
     </r>
     <r>
@@ -18434,6 +19836,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>新能源</t>
     </r>
     <r>
@@ -18447,6 +19854,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399808 </t>
     </r>
     <r>
@@ -18466,6 +19878,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>稀土</t>
     </r>
     <r>
@@ -18485,6 +19902,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>光伏</t>
     </r>
     <r>
@@ -18504,6 +19926,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>电池</t>
     </r>
     <r>
@@ -18535,6 +19962,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>碳中和</t>
     </r>
     <r>
@@ -18557,6 +19989,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>医药</t>
     </r>
     <r>
@@ -18579,6 +20016,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>新能源龙头</t>
     </r>
     <r>
@@ -18604,6 +20046,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>旅游</t>
     </r>
     <r>
@@ -18626,6 +20073,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>互联网</t>
     </r>
     <r>
@@ -18648,6 +20100,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>智能电车</t>
     </r>
     <r>
@@ -18678,6 +20135,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>上海金</t>
     </r>
     <r>
@@ -18697,6 +20159,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>医疗</t>
     </r>
     <r>
@@ -18710,6 +20177,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399989 </t>
     </r>
     <r>
@@ -18729,6 +20201,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>香港科技</t>
     </r>
     <r>
@@ -18748,6 +20225,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>双创</t>
     </r>
     <r>
@@ -18775,6 +20257,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>生物医药</t>
     </r>
     <r>
@@ -18794,6 +20281,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>双创</t>
     </r>
     <r>
@@ -18813,6 +20305,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>科创创业</t>
     </r>
     <r>
@@ -18832,6 +20329,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>科创创业</t>
     </r>
     <r>
@@ -18851,6 +20353,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>红利</t>
     </r>
     <r>
@@ -18864,6 +20371,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399324 </t>
     </r>
     <r>
@@ -18886,6 +20398,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>物联网</t>
     </r>
     <r>
@@ -18907,6 +20424,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399285 </t>
     </r>
     <r>
@@ -18934,6 +20456,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>线上消费</t>
     </r>
     <r>
@@ -18956,6 +20483,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>智能网联汽车</t>
     </r>
     <r>
@@ -18978,6 +20510,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>有色</t>
     </r>
     <r>
@@ -19000,6 +20537,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>深创</t>
     </r>
     <r>
@@ -19013,6 +20555,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399088 </t>
     </r>
     <r>
@@ -19040,6 +20587,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>软件龙头</t>
     </r>
     <r>
@@ -19062,6 +20614,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>深创龙头</t>
     </r>
     <r>
@@ -19084,6 +20641,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>电池</t>
     </r>
     <r>
@@ -19103,6 +20665,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>建材</t>
     </r>
     <r>
@@ -19122,6 +20689,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>医疗</t>
     </r>
     <r>
@@ -19149,6 +20721,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>新材料</t>
     </r>
     <r>
@@ -19168,6 +20745,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>港股消费</t>
     </r>
     <r>
@@ -19190,6 +20772,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>医疗器械指数</t>
     </r>
     <r>
@@ -19212,6 +20799,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>恒生科技</t>
     </r>
     <r>
@@ -19242,6 +20834,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>恒生科技</t>
     </r>
     <r>
@@ -19261,6 +20858,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>恒生科技指数</t>
     </r>
     <r>
@@ -19280,6 +20882,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创</t>
     </r>
     <r>
@@ -19293,6 +20900,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399012 </t>
     </r>
     <r>
@@ -19320,6 +20932,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>智能车</t>
     </r>
     <r>
@@ -19339,6 +20956,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>银行</t>
     </r>
     <r>
@@ -19361,6 +20983,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>医疗器械</t>
     </r>
     <r>
@@ -19380,6 +21007,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>机械</t>
     </r>
     <r>
@@ -19402,6 +21034,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>碳中和</t>
     </r>
     <r>
@@ -19429,6 +21066,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>日经</t>
     </r>
     <r>
@@ -19451,6 +21093,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>碳中和</t>
     </r>
     <r>
@@ -19473,6 +21120,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>云计算</t>
     </r>
     <r>
@@ -19492,6 +21144,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中证</t>
     </r>
     <r>
@@ -19511,6 +21168,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>有色金属</t>
     </r>
     <r>
@@ -19530,6 +21192,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创新药</t>
     </r>
     <r>
@@ -19552,6 +21219,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>医疗设备</t>
     </r>
     <r>
@@ -19571,6 +21243,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创新药</t>
     </r>
     <r>
@@ -19598,6 +21275,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>有色</t>
     </r>
     <r>
@@ -19619,6 +21301,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399395 </t>
     </r>
     <r>
@@ -19638,6 +21325,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>有色龙头</t>
     </r>
     <r>
@@ -19657,6 +21349,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>券商</t>
     </r>
     <r>
@@ -19670,6 +21367,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399975 </t>
     </r>
     <r>
@@ -19689,6 +21391,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>金融科技</t>
     </r>
     <r>
@@ -19711,6 +21418,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>证券</t>
     </r>
     <r>
@@ -19738,6 +21450,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>光伏</t>
     </r>
     <r>
@@ -19765,6 +21482,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>养殖</t>
     </r>
     <r>
@@ -19787,6 +21509,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>畜牧</t>
     </r>
     <r>
@@ -19806,6 +21533,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>游戏</t>
     </r>
     <r>
@@ -19828,6 +21560,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>化工</t>
     </r>
     <r>
@@ -19850,6 +21587,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>生物科技指数</t>
     </r>
     <r>
@@ -19872,6 +21614,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>影视</t>
     </r>
     <r>
@@ -19894,6 +21641,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>光伏</t>
     </r>
     <r>
@@ -19913,6 +21665,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>生物药</t>
     </r>
     <r>
@@ -19932,6 +21689,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>恒生国企</t>
     </r>
     <r>
@@ -19954,6 +21716,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>证券</t>
     </r>
     <r>
@@ -19973,6 +21740,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>软件</t>
     </r>
     <r>
@@ -19995,6 +21767,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>食品饮料</t>
     </r>
     <r>
@@ -20008,6 +21785,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399396 </t>
     </r>
     <r>
@@ -20027,6 +21809,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>互联网龙头</t>
     </r>
     <r>
@@ -20046,6 +21833,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>生物科技</t>
     </r>
     <r>
@@ -20065,6 +21857,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>医疗</t>
     </r>
     <r>
@@ -20084,6 +21881,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>新能车</t>
     </r>
     <r>
@@ -20103,6 +21905,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>农业</t>
     </r>
     <r>
@@ -20125,6 +21932,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>农业</t>
     </r>
     <r>
@@ -20144,6 +21956,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>BOCI</t>
     </r>
     <r>
@@ -20174,6 +21991,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>新经济</t>
     </r>
     <r>
@@ -20196,6 +22018,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>H</t>
     </r>
     <r>
@@ -20231,6 +22058,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>人工智能</t>
     </r>
     <r>
@@ -20253,6 +22085,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创</t>
     </r>
     <r>
@@ -20283,6 +22120,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>0-4</t>
     </r>
     <r>
@@ -20313,6 +22155,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中证</t>
     </r>
     <r>
@@ -20334,6 +22181,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399905 </t>
     </r>
     <r>
@@ -20361,6 +22213,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业大盘</t>
     </r>
     <r>
@@ -20374,6 +22231,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399293 </t>
     </r>
     <r>
@@ -20393,6 +22255,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板</t>
     </r>
     <r>
@@ -20420,6 +22287,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>黄金基金</t>
     </r>
     <r>
@@ -20445,6 +22317,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>半导体</t>
     </r>
     <r>
@@ -20464,6 +22341,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创大盘</t>
     </r>
     <r>
@@ -20495,6 +22377,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>传媒</t>
     </r>
     <r>
@@ -20508,6 +22395,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399971 </t>
     </r>
     <r>
@@ -20527,6 +22419,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>计算机</t>
     </r>
     <r>
@@ -20549,6 +22446,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创新药</t>
     </r>
     <r>
@@ -20568,6 +22470,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创中盘</t>
     </r>
     <r>
@@ -20581,6 +22488,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399291 </t>
     </r>
     <r>
@@ -20611,6 +22523,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>科技</t>
     </r>
     <r>
@@ -20633,6 +22550,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>新能源车</t>
     </r>
     <r>
@@ -20652,6 +22574,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>电子</t>
     </r>
     <r>
@@ -20674,6 +22601,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>家电</t>
     </r>
     <r>
@@ -20708,6 +22640,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中证</t>
     </r>
     <r>
@@ -20735,6 +22672,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>芯片</t>
     </r>
     <r>
@@ -20762,6 +22704,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>芯片</t>
     </r>
     <r>
@@ -20781,6 +22728,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>证券</t>
     </r>
     <r>
@@ -20802,6 +22754,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399437 </t>
     </r>
     <r>
@@ -20821,6 +22778,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>小盘价值</t>
     </r>
     <r>
@@ -20834,6 +22796,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399377 </t>
     </r>
     <r>
@@ -20853,6 +22820,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>湾创</t>
     </r>
     <r>
@@ -20866,6 +22838,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">980001 </t>
     </r>
     <r>
@@ -20893,6 +22870,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>能源化工</t>
     </r>
     <r>
@@ -20915,6 +22897,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>深</t>
     </r>
     <r>
@@ -20942,6 +22929,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>深</t>
     </r>
     <r>
@@ -20969,6 +22961,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>有色</t>
     </r>
     <r>
@@ -20991,6 +22988,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>央企创新</t>
     </r>
     <r>
@@ -21013,6 +23015,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>豆粕</t>
     </r>
     <r>
@@ -21035,6 +23042,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>科技创新</t>
     </r>
     <r>
@@ -21057,6 +23069,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>5</t>
     </r>
     <r>
@@ -21087,6 +23104,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中证</t>
     </r>
     <r>
@@ -21114,6 +23136,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板</t>
     </r>
     <r>
@@ -21141,6 +23168,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>深</t>
     </r>
     <r>
@@ -21168,6 +23200,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>民企</t>
     </r>
     <r>
@@ -21181,6 +23218,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399362 </t>
     </r>
     <r>
@@ -21211,6 +23253,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板价值</t>
     </r>
     <r>
@@ -21224,6 +23271,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399295 </t>
     </r>
     <r>
@@ -21243,6 +23295,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板成长</t>
     </r>
     <r>
@@ -21256,6 +23313,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399296 </t>
     </r>
     <r>
@@ -21275,6 +23337,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板</t>
     </r>
     <r>
@@ -21302,6 +23369,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>央视</t>
     </r>
     <r>
@@ -21315,6 +23387,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399550 </t>
     </r>
     <r>
@@ -21345,6 +23422,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板</t>
     </r>
     <r>
@@ -21372,6 +23454,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>央企</t>
     </r>
     <r>
@@ -21394,6 +23481,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>深</t>
     </r>
     <r>
@@ -21424,6 +23516,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>恒生中国企业</t>
     </r>
     <r>
@@ -21443,6 +23540,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>H</t>
     </r>
     <r>
@@ -21470,6 +23572,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板</t>
     </r>
     <r>
@@ -21497,6 +23604,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板</t>
     </r>
     <r>
@@ -21524,6 +23636,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板</t>
     </r>
     <r>
@@ -21551,6 +23668,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板</t>
     </r>
     <r>
@@ -21578,6 +23700,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板</t>
     </r>
     <r>
@@ -21597,6 +23724,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板</t>
     </r>
     <r>
@@ -21624,6 +23756,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>纳指</t>
     </r>
     <r>
@@ -21643,6 +23780,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>深证成指</t>
     </r>
     <r>
@@ -21656,6 +23798,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399001 </t>
     </r>
     <r>
@@ -21675,6 +23822,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>材料</t>
     </r>
     <r>
@@ -21697,6 +23849,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>能源</t>
     </r>
     <r>
@@ -21727,6 +23884,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>金融地产</t>
     </r>
     <r>
@@ -21749,6 +23911,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>信息技术</t>
     </r>
     <r>
@@ -21771,6 +23938,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>汇添富快钱</t>
     </r>
     <r>
@@ -21793,6 +23965,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>医药卫生</t>
     </r>
     <r>
@@ -21815,6 +23992,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>货币</t>
     </r>
     <r>
@@ -21834,6 +24016,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>招商快线</t>
     </r>
     <r>
@@ -21853,6 +24040,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>黄金</t>
     </r>
     <r>
@@ -21883,6 +24075,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>可选消费</t>
     </r>
     <r>
@@ -21905,6 +24102,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中证</t>
     </r>
     <r>
@@ -21932,6 +24134,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>黄金</t>
     </r>
     <r>
@@ -21951,6 +24158,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>国投金融地产</t>
     </r>
     <r>
@@ -21976,6 +24188,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>消费</t>
     </r>
     <r>
@@ -21995,6 +24212,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>医药</t>
     </r>
     <r>
@@ -22017,6 +24239,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>能源</t>
     </r>
     <r>
@@ -22039,6 +24266,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>金融</t>
     </r>
     <r>
@@ -22061,6 +24293,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>沪深</t>
     </r>
     <r>
@@ -22088,6 +24325,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中证</t>
     </r>
     <r>
@@ -22107,6 +24349,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中证</t>
     </r>
     <r>
@@ -22120,6 +24367,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399903 </t>
     </r>
     <r>
@@ -22147,6 +24399,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>恒生</t>
     </r>
     <r>
@@ -22169,6 +24426,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>沪深</t>
     </r>
     <r>
@@ -22188,6 +24450,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中创</t>
     </r>
     <r>
@@ -22201,6 +24468,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399624 </t>
     </r>
     <r>
@@ -22228,6 +24500,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板</t>
     </r>
     <r>
@@ -22247,6 +24524,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>深</t>
     </r>
     <r>
@@ -22260,6 +24542,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399007 </t>
     </r>
     <r>
@@ -22287,6 +24574,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>深价值</t>
     </r>
     <r>
@@ -22300,6 +24592,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399348 </t>
     </r>
     <r>
@@ -22322,6 +24619,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>深</t>
     </r>
     <r>
@@ -22335,6 +24637,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399701 </t>
     </r>
     <r>
@@ -22362,6 +24669,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>基本面</t>
     </r>
     <r>
@@ -22375,6 +24687,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399702 </t>
     </r>
     <r>
@@ -22420,6 +24737,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>创业板</t>
     </r>
     <r>
@@ -22447,6 +24769,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>深成长龙头</t>
     </r>
     <r>
@@ -22460,6 +24787,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399326 </t>
     </r>
     <r>
@@ -22487,6 +24819,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>深红利</t>
     </r>
     <r>
@@ -22506,6 +24843,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>深成</t>
     </r>
     <r>
@@ -22525,6 +24867,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>中小</t>
     </r>
     <r>
@@ -22538,6 +24885,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">399005 </t>
     </r>
     <r>
@@ -22565,6 +24917,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>深证</t>
     </r>
     <r>
@@ -23322,7 +25679,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -23371,13 +25728,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -23697,7 +26048,7 @@
   <dimension ref="A1:B572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="1"/>
@@ -24126,7 +26477,7 @@
       <c r="A53" s="8">
         <v>510990</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -24310,7 +26661,7 @@
       <c r="A76" s="14">
         <v>511770</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="16" t="s">
         <v>76</v>
       </c>
     </row>
@@ -24502,7 +26853,7 @@
       <c r="A100" s="8">
         <v>512150</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="9" t="s">
         <v>100</v>
       </c>
     </row>
@@ -24550,7 +26901,7 @@
       <c r="A106" s="6">
         <v>512220</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="7" t="s">
         <v>106</v>
       </c>
     </row>
@@ -24646,7 +26997,7 @@
       <c r="A118" s="6">
         <v>512520</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="7" t="s">
         <v>118</v>
       </c>
     </row>
@@ -24710,7 +27061,7 @@
       <c r="A126" s="14">
         <v>512650</v>
       </c>
-      <c r="B126" s="17" t="s">
+      <c r="B126" s="16" t="s">
         <v>126</v>
       </c>
     </row>
@@ -24910,7 +27261,7 @@
       <c r="A151" s="14">
         <v>512990</v>
       </c>
-      <c r="B151" s="17" t="s">
+      <c r="B151" s="16" t="s">
         <v>151</v>
       </c>
     </row>
@@ -25110,7 +27461,7 @@
       <c r="A176" s="14">
         <v>513260</v>
       </c>
-      <c r="B176" s="17" t="s">
+      <c r="B176" s="16" t="s">
         <v>176</v>
       </c>
     </row>
@@ -25310,7 +27661,7 @@
       <c r="A201" s="14">
         <v>513730</v>
       </c>
-      <c r="B201" s="17" t="s">
+      <c r="B201" s="16" t="s">
         <v>201</v>
       </c>
     </row>
@@ -25510,7 +27861,7 @@
       <c r="A226" s="14">
         <v>515070</v>
       </c>
-      <c r="B226" s="17" t="s">
+      <c r="B226" s="16" t="s">
         <v>226</v>
       </c>
     </row>
@@ -25910,7 +28261,7 @@
       <c r="A276" s="12">
         <v>515850</v>
       </c>
-      <c r="B276" s="19" t="s">
+      <c r="B276" s="17" t="s">
         <v>276</v>
       </c>
     </row>
@@ -26110,7 +28461,7 @@
       <c r="A301" s="14">
         <v>516180</v>
       </c>
-      <c r="B301" s="17" t="s">
+      <c r="B301" s="16" t="s">
         <v>301</v>
       </c>
     </row>
@@ -26406,7 +28757,7 @@
       <c r="A338" s="8">
         <v>516720</v>
       </c>
-      <c r="B338" s="16" t="s">
+      <c r="B338" s="9" t="s">
         <v>338</v>
       </c>
     </row>
@@ -26486,7 +28837,7 @@
       <c r="A348" s="8">
         <v>516830</v>
       </c>
-      <c r="B348" s="16" t="s">
+      <c r="B348" s="9" t="s">
         <v>348</v>
       </c>
     </row>
@@ -26510,7 +28861,7 @@
       <c r="A351" s="14">
         <v>516880</v>
       </c>
-      <c r="B351" s="17" t="s">
+      <c r="B351" s="16" t="s">
         <v>351</v>
       </c>
     </row>
@@ -26638,7 +28989,7 @@
       <c r="A367" s="8">
         <v>517100</v>
       </c>
-      <c r="B367" s="16" t="s">
+      <c r="B367" s="9" t="s">
         <v>367</v>
       </c>
     </row>
@@ -26710,7 +29061,7 @@
       <c r="A376" s="14">
         <v>517330</v>
       </c>
-      <c r="B376" s="17" t="s">
+      <c r="B376" s="16" t="s">
         <v>376</v>
       </c>
     </row>
@@ -26910,7 +29261,7 @@
       <c r="A401" s="14">
         <v>560010</v>
       </c>
-      <c r="B401" s="17" t="s">
+      <c r="B401" s="16" t="s">
         <v>401</v>
       </c>
     </row>
@@ -27006,7 +29357,7 @@
       <c r="A413" s="8">
         <v>560180</v>
       </c>
-      <c r="B413" s="16" t="s">
+      <c r="B413" s="9" t="s">
         <v>413</v>
       </c>
     </row>
@@ -27110,7 +29461,7 @@
       <c r="A426" s="14">
         <v>560650</v>
       </c>
-      <c r="B426" s="17" t="s">
+      <c r="B426" s="16" t="s">
         <v>426</v>
       </c>
     </row>
@@ -27294,7 +29645,7 @@
       <c r="A449" s="6">
         <v>561180</v>
       </c>
-      <c r="B449" s="18" t="s">
+      <c r="B449" s="7" t="s">
         <v>449</v>
       </c>
     </row>
@@ -27310,7 +29661,7 @@
       <c r="A451" s="14">
         <v>561200</v>
       </c>
-      <c r="B451" s="17" t="s">
+      <c r="B451" s="16" t="s">
         <v>451</v>
       </c>
     </row>
@@ -27390,7 +29741,7 @@
       <c r="A461" s="8">
         <v>561370</v>
       </c>
-      <c r="B461" s="16" t="s">
+      <c r="B461" s="9" t="s">
         <v>461</v>
       </c>
     </row>
@@ -28321,7 +30672,7 @@
   <dimension ref="A1:E390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
